--- a/biology/Zoologie/Agrotis_clavis/Agrotis_clavis.xlsx
+++ b/biology/Zoologie/Agrotis_clavis/Agrotis_clavis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrotis clavis, la Pointillée, est une espèce de lépidoptères nocturnes de l'Eurasie tempérée, appartenant à la famille des Noctuidae, décrit et nommé en 1766 par Johann Siegfried Hufnagel (1724-1795).
 L'adulte (imago) est visible de juin à fin juillet et parfois en août-septembre.
@@ -513,9 +525,11 @@
           <t>Prédation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa chenille peut être prédatée par de nombreux animaux[évasif]. Concernant l'imago, il a été montré qu'au début des années 2010, c'est l'espèce la plus fréquemment détectée génétiquement dans le guano de l'Oreillard montagnard dans les Pyrénées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chenille peut être prédatée par de nombreux animaux[évasif]. Concernant l'imago, il a été montré qu'au début des années 2010, c'est l'espèce la plus fréquemment détectée génétiquement dans le guano de l'Oreillard montagnard dans les Pyrénées.
 			Les antennes et le dos montrent un mâle distinct
 			Le dessous
 			De l'avant
